--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,264 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B12" t="n">
+        <v>355</v>
+      </c>
+      <c r="C12" t="n">
+        <v>368.9500122070312</v>
+      </c>
+      <c r="D12" t="n">
+        <v>350</v>
+      </c>
+      <c r="E12" t="n">
+        <v>353.0499877929688</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B13" t="n">
+        <v>353.1000061035156</v>
+      </c>
+      <c r="C13" t="n">
+        <v>370.7000122070312</v>
+      </c>
+      <c r="D13" t="n">
+        <v>353.0499877929688</v>
+      </c>
+      <c r="E13" t="n">
+        <v>368.8999938964844</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B14" t="n">
+        <v>365</v>
+      </c>
+      <c r="C14" t="n">
+        <v>373</v>
+      </c>
+      <c r="D14" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B15" t="n">
+        <v>364.6499938964844</v>
+      </c>
+      <c r="C15" t="n">
+        <v>364.7999877929688</v>
+      </c>
+      <c r="D15" t="n">
+        <v>342</v>
+      </c>
+      <c r="E15" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B16" t="n">
+        <v>348</v>
+      </c>
+      <c r="C16" t="n">
+        <v>350</v>
+      </c>
+      <c r="D16" t="n">
+        <v>340</v>
+      </c>
+      <c r="E16" t="n">
+        <v>345</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1154,7 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1205,7 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1256,7 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1307,7 +1315,264 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B17" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="C17" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="E17" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B18" t="n">
+        <v>379.9500122070312</v>
+      </c>
+      <c r="C18" t="n">
+        <v>380.3500061035156</v>
+      </c>
+      <c r="D18" t="n">
+        <v>375</v>
+      </c>
+      <c r="E18" t="n">
+        <v>377.6499938964844</v>
+      </c>
+      <c r="F18" t="n">
+        <v>26750</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B19" t="n">
+        <v>358.8999938964844</v>
+      </c>
+      <c r="C19" t="n">
+        <v>363</v>
+      </c>
+      <c r="D19" t="n">
+        <v>358.7999877929688</v>
+      </c>
+      <c r="E19" t="n">
+        <v>363</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B20" t="n">
+        <v>345.0499877929688</v>
+      </c>
+      <c r="C20" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>345.0499877929688</v>
+      </c>
+      <c r="E20" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B21" t="n">
+        <v>373.7999877929688</v>
+      </c>
+      <c r="C21" t="n">
+        <v>373.7999877929688</v>
+      </c>
+      <c r="D21" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="E21" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,7 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1419,7 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1470,7 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1521,7 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1572,7 +1580,264 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B22" t="n">
+        <v>356.9500122070312</v>
+      </c>
+      <c r="C22" t="n">
+        <v>357</v>
+      </c>
+      <c r="D22" t="n">
+        <v>341.6499938964844</v>
+      </c>
+      <c r="E22" t="n">
+        <v>352.8500061035156</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B23" t="n">
+        <v>355</v>
+      </c>
+      <c r="C23" t="n">
+        <v>355</v>
+      </c>
+      <c r="D23" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29250</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B24" t="n">
+        <v>328.5499877929688</v>
+      </c>
+      <c r="C24" t="n">
+        <v>339.9500122070312</v>
+      </c>
+      <c r="D24" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>318.6000061035156</v>
+      </c>
+      <c r="F24" t="n">
+        <v>28250</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B25" t="n">
+        <v>318.6000061035156</v>
+      </c>
+      <c r="C25" t="n">
+        <v>325</v>
+      </c>
+      <c r="D25" t="n">
+        <v>303.2999877929688</v>
+      </c>
+      <c r="E25" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12750</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B26" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>316.7999877929688</v>
+      </c>
+      <c r="D26" t="n">
+        <v>303</v>
+      </c>
+      <c r="E26" t="n">
+        <v>316.7999877929688</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>31</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1633,7 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1684,7 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1735,7 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1786,7 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1837,7 +1845,315 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
-      <c r="Q26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B27" t="n">
+        <v>307.25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>315</v>
+      </c>
+      <c r="D27" t="n">
+        <v>307.25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>315</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>307.2000122070312</v>
+      </c>
+      <c r="C28" t="n">
+        <v>314.9500122070312</v>
+      </c>
+      <c r="D28" t="n">
+        <v>301</v>
+      </c>
+      <c r="E28" t="n">
+        <v>310.0499877929688</v>
+      </c>
+      <c r="F28" t="n">
+        <v>40750</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B29" t="n">
+        <v>310.1499938964844</v>
+      </c>
+      <c r="C29" t="n">
+        <v>315.6000061035156</v>
+      </c>
+      <c r="D29" t="n">
+        <v>302</v>
+      </c>
+      <c r="E29" t="n">
+        <v>310</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B30" t="n">
+        <v>308.5499877929688</v>
+      </c>
+      <c r="C30" t="n">
+        <v>317</v>
+      </c>
+      <c r="D30" t="n">
+        <v>308.2999877929688</v>
+      </c>
+      <c r="E30" t="n">
+        <v>313.1499938964844</v>
+      </c>
+      <c r="F30" t="n">
+        <v>32250</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B31" t="n">
+        <v>310</v>
+      </c>
+      <c r="C31" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="D31" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>308.0499877929688</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>6</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B32" t="n">
+        <v>313</v>
+      </c>
+      <c r="C32" t="n">
+        <v>313</v>
+      </c>
+      <c r="D32" t="n">
+        <v>300</v>
+      </c>
+      <c r="E32" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1898,7 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1949,7 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2000,7 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2051,7 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2102,7 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2153,7 +2163,264 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B33" t="n">
+        <v>300.0499877929688</v>
+      </c>
+      <c r="C33" t="n">
+        <v>308</v>
+      </c>
+      <c r="D33" t="n">
+        <v>300</v>
+      </c>
+      <c r="E33" t="n">
+        <v>303.5499877929688</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9750</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>7</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B34" t="n">
+        <v>301</v>
+      </c>
+      <c r="C34" t="n">
+        <v>310</v>
+      </c>
+      <c r="D34" t="n">
+        <v>300</v>
+      </c>
+      <c r="E34" t="n">
+        <v>305</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>11</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>7</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B35" t="n">
+        <v>289.7999877929688</v>
+      </c>
+      <c r="C35" t="n">
+        <v>300</v>
+      </c>
+      <c r="D35" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="E35" t="n">
+        <v>291.0499877929688</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5250</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>12</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>7</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B36" t="n">
+        <v>300</v>
+      </c>
+      <c r="C36" t="n">
+        <v>300</v>
+      </c>
+      <c r="D36" t="n">
+        <v>288.2000122070312</v>
+      </c>
+      <c r="E36" t="n">
+        <v>290</v>
+      </c>
+      <c r="F36" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>7</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B37" t="n">
+        <v>275.5499877929688</v>
+      </c>
+      <c r="C37" t="n">
+        <v>281</v>
+      </c>
+      <c r="D37" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30750</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>14</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>7</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2216,7 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2267,7 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2318,7 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2369,7 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2420,7 +2428,468 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B38" t="n">
+        <v>264</v>
+      </c>
+      <c r="C38" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>261.75</v>
+      </c>
+      <c r="E38" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="F38" t="n">
+        <v>22250</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>17</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B39" t="n">
+        <v>265</v>
+      </c>
+      <c r="C39" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="D39" t="n">
+        <v>259.8999938964844</v>
+      </c>
+      <c r="E39" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>18</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B40" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="C40" t="n">
+        <v>277.9500122070312</v>
+      </c>
+      <c r="D40" t="n">
+        <v>265.0499877929688</v>
+      </c>
+      <c r="E40" t="n">
+        <v>265.1499938964844</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>19</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>8</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B41" t="n">
+        <v>259.75</v>
+      </c>
+      <c r="C41" t="n">
+        <v>264.9500122070312</v>
+      </c>
+      <c r="D41" t="n">
+        <v>258</v>
+      </c>
+      <c r="E41" t="n">
+        <v>261.0499877929688</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9750</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>20</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>8</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B42" t="n">
+        <v>262</v>
+      </c>
+      <c r="C42" t="n">
+        <v>262</v>
+      </c>
+      <c r="D42" t="n">
+        <v>251</v>
+      </c>
+      <c r="E42" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>21</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>8</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B43" t="n">
+        <v>259.3500061035156</v>
+      </c>
+      <c r="C43" t="n">
+        <v>269.2999877929688</v>
+      </c>
+      <c r="D43" t="n">
+        <v>258.8500061035156</v>
+      </c>
+      <c r="E43" t="n">
+        <v>269.2999877929688</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>24</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>9</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B44" t="n">
+        <v>258.0499877929688</v>
+      </c>
+      <c r="C44" t="n">
+        <v>260.8999938964844</v>
+      </c>
+      <c r="D44" t="n">
+        <v>257.1499938964844</v>
+      </c>
+      <c r="E44" t="n">
+        <v>260.8999938964844</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>25</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B45" t="n">
+        <v>260</v>
+      </c>
+      <c r="C45" t="n">
+        <v>262</v>
+      </c>
+      <c r="D45" t="n">
+        <v>258</v>
+      </c>
+      <c r="E45" t="n">
+        <v>258</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>27</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>9</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B46" t="n">
+        <v>257.3999938964844</v>
+      </c>
+      <c r="C46" t="n">
+        <v>257.3999938964844</v>
+      </c>
+      <c r="D46" t="n">
+        <v>245.1000061035156</v>
+      </c>
+      <c r="E46" t="n">
+        <v>246</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>28</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>9</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2481,7 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2532,7 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2583,7 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2634,7 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2685,7 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2736,7 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2787,7 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
-      <c r="Q44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2838,7 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2889,7 +2905,468 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
-      <c r="Q46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B47" t="n">
+        <v>235</v>
+      </c>
+      <c r="C47" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="D47" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="E47" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9750</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>10</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B48" t="n">
+        <v>230</v>
+      </c>
+      <c r="C48" t="n">
+        <v>230</v>
+      </c>
+      <c r="D48" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="E48" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10750</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>10</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B49" t="n">
+        <v>220</v>
+      </c>
+      <c r="C49" t="n">
+        <v>233.1499938964844</v>
+      </c>
+      <c r="D49" t="n">
+        <v>220</v>
+      </c>
+      <c r="E49" t="n">
+        <v>233</v>
+      </c>
+      <c r="F49" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>10</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B50" t="n">
+        <v>230.0500030517578</v>
+      </c>
+      <c r="C50" t="n">
+        <v>235.75</v>
+      </c>
+      <c r="D50" t="n">
+        <v>223</v>
+      </c>
+      <c r="E50" t="n">
+        <v>227.4499969482422</v>
+      </c>
+      <c r="F50" t="n">
+        <v>20750</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>10</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B51" t="n">
+        <v>225</v>
+      </c>
+      <c r="C51" t="n">
+        <v>234.6999969482422</v>
+      </c>
+      <c r="D51" t="n">
+        <v>225</v>
+      </c>
+      <c r="E51" t="n">
+        <v>229.0500030517578</v>
+      </c>
+      <c r="F51" t="n">
+        <v>108000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" t="n">
+        <v>7</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>10</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B52" t="n">
+        <v>229.0500030517578</v>
+      </c>
+      <c r="C52" t="n">
+        <v>232.8999938964844</v>
+      </c>
+      <c r="D52" t="n">
+        <v>217.6000061035156</v>
+      </c>
+      <c r="E52" t="n">
+        <v>223.1499938964844</v>
+      </c>
+      <c r="F52" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>11</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B53" t="n">
+        <v>219</v>
+      </c>
+      <c r="C53" t="n">
+        <v>220</v>
+      </c>
+      <c r="D53" t="n">
+        <v>212</v>
+      </c>
+      <c r="E53" t="n">
+        <v>212</v>
+      </c>
+      <c r="F53" t="n">
+        <v>61750</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>11</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B54" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="C54" t="n">
+        <v>209</v>
+      </c>
+      <c r="D54" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="E54" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="F54" t="n">
+        <v>45750</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>11</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B55" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="C55" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="D55" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="E55" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="F55" t="n">
+        <v>28750</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>13</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>11</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2958,7 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
-      <c r="Q47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3009,7 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
-      <c r="Q48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3060,7 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
-      <c r="Q49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3111,7 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3162,7 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
-      <c r="Q51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3213,7 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3264,7 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3315,7 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
-      <c r="Q54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3366,7 +3382,519 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B56" t="n">
+        <v>187</v>
+      </c>
+      <c r="C56" t="n">
+        <v>191.4499969482422</v>
+      </c>
+      <c r="D56" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="E56" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="F56" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>17</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>12</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B57" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="C57" t="n">
+        <v>184</v>
+      </c>
+      <c r="D57" t="n">
+        <v>172.75</v>
+      </c>
+      <c r="E57" t="n">
+        <v>177.1999969482422</v>
+      </c>
+      <c r="F57" t="n">
+        <v>88500</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>18</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>12</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B58" t="n">
+        <v>170</v>
+      </c>
+      <c r="C58" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="D58" t="n">
+        <v>170</v>
+      </c>
+      <c r="E58" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="F58" t="n">
+        <v>16250</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>19</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>12</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B59" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="C59" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="D59" t="n">
+        <v>189</v>
+      </c>
+      <c r="E59" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12250</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>12</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B60" t="n">
+        <v>205</v>
+      </c>
+      <c r="C60" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="D60" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="F60" t="n">
+        <v>46000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>12</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B61" t="n">
+        <v>194.8500061035156</v>
+      </c>
+      <c r="C61" t="n">
+        <v>209.8999938964844</v>
+      </c>
+      <c r="D61" t="n">
+        <v>194.8500061035156</v>
+      </c>
+      <c r="E61" t="n">
+        <v>209.0500030517578</v>
+      </c>
+      <c r="F61" t="n">
+        <v>61750</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>24</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>13</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B62" t="n">
+        <v>209</v>
+      </c>
+      <c r="C62" t="n">
+        <v>209</v>
+      </c>
+      <c r="D62" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="E62" t="n">
+        <v>198.8000030517578</v>
+      </c>
+      <c r="F62" t="n">
+        <v>44500</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>25</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>13</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B63" t="n">
+        <v>199</v>
+      </c>
+      <c r="C63" t="n">
+        <v>199</v>
+      </c>
+      <c r="D63" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="E63" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="F63" t="n">
+        <v>18500</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>13</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B64" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>188.9499969482422</v>
+      </c>
+      <c r="D64" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>179.6499938964844</v>
+      </c>
+      <c r="F64" t="n">
+        <v>91500</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>13</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B65" t="n">
+        <v>179.6000061035156</v>
+      </c>
+      <c r="C65" t="n">
+        <v>180</v>
+      </c>
+      <c r="D65" t="n">
+        <v>170.6999969482422</v>
+      </c>
+      <c r="E65" t="n">
+        <v>170.8999938964844</v>
+      </c>
+      <c r="F65" t="n">
+        <v>34500</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>28</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>13</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,7 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3486,7 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3537,7 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
-      <c r="Q58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3588,7 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3639,7 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3690,7 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
-      <c r="Q61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3741,7 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
-      <c r="Q62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3792,7 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3843,7 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
-      <c r="Q64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3894,7 +3912,213 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
-      <c r="Q65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B66" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="C66" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="D66" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="E66" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>14</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B67" t="n">
+        <v>186</v>
+      </c>
+      <c r="C67" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="D67" t="n">
+        <v>186</v>
+      </c>
+      <c r="E67" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>14</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B68" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="C68" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="D68" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="E68" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>14</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B69" t="n">
+        <v>207.6000061035156</v>
+      </c>
+      <c r="C69" t="n">
+        <v>207.6000061035156</v>
+      </c>
+      <c r="D69" t="n">
+        <v>198.3000030517578</v>
+      </c>
+      <c r="E69" t="n">
+        <v>199</v>
+      </c>
+      <c r="F69" t="n">
+        <v>19250</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>14</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3965,7 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4016,7 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
-      <c r="Q67" t="inlineStr"/>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4067,7 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
-      <c r="Q68" t="inlineStr"/>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4118,7 +4124,213 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
-      <c r="Q69" t="inlineStr"/>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B70" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="C70" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="D70" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="E70" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>15</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B71" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="C71" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="D71" t="n">
+        <v>179.6000061035156</v>
+      </c>
+      <c r="E71" t="n">
+        <v>180.4499969482422</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10250</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>15</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B72" t="n">
+        <v>173</v>
+      </c>
+      <c r="C72" t="n">
+        <v>186</v>
+      </c>
+      <c r="D72" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>186</v>
+      </c>
+      <c r="F72" t="n">
+        <v>24750</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+      <c r="I72" t="n">
+        <v>9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>15</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B73" t="n">
+        <v>189.6000061035156</v>
+      </c>
+      <c r="C73" t="n">
+        <v>194.9499969482422</v>
+      </c>
+      <c r="D73" t="n">
+        <v>188</v>
+      </c>
+      <c r="E73" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>15</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4177,7 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
-      <c r="Q70" t="inlineStr"/>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4228,7 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
-      <c r="Q71" t="inlineStr"/>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4279,7 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
-      <c r="Q72" t="inlineStr"/>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4330,7 +4336,162 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
-      <c r="Q73" t="inlineStr"/>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B74" t="n">
+        <v>204.1000061035156</v>
+      </c>
+      <c r="C74" t="n">
+        <v>204.1999969482422</v>
+      </c>
+      <c r="D74" t="n">
+        <v>199</v>
+      </c>
+      <c r="E74" t="n">
+        <v>204</v>
+      </c>
+      <c r="F74" t="n">
+        <v>7250</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+      <c r="I74" t="n">
+        <v>15</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>16</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B75" t="n">
+        <v>214</v>
+      </c>
+      <c r="C75" t="n">
+        <v>214.1999969482422</v>
+      </c>
+      <c r="D75" t="n">
+        <v>209</v>
+      </c>
+      <c r="E75" t="n">
+        <v>214.1499938964844</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+      <c r="I75" t="n">
+        <v>16</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>16</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B76" t="n">
+        <v>214</v>
+      </c>
+      <c r="C76" t="n">
+        <v>216.75</v>
+      </c>
+      <c r="D76" t="n">
+        <v>203.4499969482422</v>
+      </c>
+      <c r="E76" t="n">
+        <v>216.1499938964844</v>
+      </c>
+      <c r="F76" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+      <c r="I76" t="n">
+        <v>17</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>16</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4389,7 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
-      <c r="Q74" t="inlineStr"/>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4440,7 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
-      <c r="Q75" t="inlineStr"/>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4491,7 +4495,468 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
-      <c r="Q76" t="inlineStr"/>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B77" t="n">
+        <v>219.9499969482422</v>
+      </c>
+      <c r="C77" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="D77" t="n">
+        <v>217.9499969482422</v>
+      </c>
+      <c r="E77" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13750</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+      <c r="I77" t="n">
+        <v>21</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>17</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B78" t="n">
+        <v>227</v>
+      </c>
+      <c r="C78" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="D78" t="n">
+        <v>227</v>
+      </c>
+      <c r="E78" t="n">
+        <v>231</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+      <c r="I78" t="n">
+        <v>22</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>17</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B79" t="n">
+        <v>230</v>
+      </c>
+      <c r="C79" t="n">
+        <v>230</v>
+      </c>
+      <c r="D79" t="n">
+        <v>226.3999938964844</v>
+      </c>
+      <c r="E79" t="n">
+        <v>226.3999938964844</v>
+      </c>
+      <c r="F79" t="n">
+        <v>500</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+      <c r="I79" t="n">
+        <v>23</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>17</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B80" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="C80" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="D80" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="E80" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="F80" t="n">
+        <v>250</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>24</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>17</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B81" t="n">
+        <v>221</v>
+      </c>
+      <c r="C81" t="n">
+        <v>221</v>
+      </c>
+      <c r="D81" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>500</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+      <c r="I81" t="n">
+        <v>25</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>17</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B82" t="n">
+        <v>220</v>
+      </c>
+      <c r="C82" t="n">
+        <v>220</v>
+      </c>
+      <c r="D82" t="n">
+        <v>217</v>
+      </c>
+      <c r="E82" t="n">
+        <v>217</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+      <c r="I82" t="n">
+        <v>28</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>18</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B83" t="n">
+        <v>212.6999969482422</v>
+      </c>
+      <c r="C83" t="n">
+        <v>213</v>
+      </c>
+      <c r="D83" t="n">
+        <v>212.6999969482422</v>
+      </c>
+      <c r="E83" t="n">
+        <v>212.6999969482422</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+      <c r="I83" t="n">
+        <v>29</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>18</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B84" t="n">
+        <v>212</v>
+      </c>
+      <c r="C84" t="n">
+        <v>212</v>
+      </c>
+      <c r="D84" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>211</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+      <c r="I84" t="n">
+        <v>30</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>18</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B85" t="n">
+        <v>206.8000030517578</v>
+      </c>
+      <c r="C85" t="n">
+        <v>206.8000030517578</v>
+      </c>
+      <c r="D85" t="n">
+        <v>206.8000030517578</v>
+      </c>
+      <c r="E85" t="n">
+        <v>206.8000030517578</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>18</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INFLAME.BO.xlsx
+++ b/stock_historical_data/1d/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4548,7 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
-      <c r="Q77" t="inlineStr"/>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4591,7 +4593,7 @@
         <v>17</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4599,7 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
-      <c r="Q78" t="inlineStr"/>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4650,7 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
-      <c r="Q79" t="inlineStr"/>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4701,7 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
-      <c r="Q80" t="inlineStr"/>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4752,7 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
-      <c r="Q81" t="inlineStr"/>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4803,7 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
-      <c r="Q82" t="inlineStr"/>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4854,7 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
-      <c r="Q83" t="inlineStr"/>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4905,7 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4956,7 +4972,519 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
-      <c r="Q85" t="inlineStr"/>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B86" t="n">
+        <v>210.8999938964844</v>
+      </c>
+      <c r="C86" t="n">
+        <v>210.8999938964844</v>
+      </c>
+      <c r="D86" t="n">
+        <v>202.6999969482422</v>
+      </c>
+      <c r="E86" t="n">
+        <v>202.6999969482422</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>19</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B87" t="n">
+        <v>198.6499938964844</v>
+      </c>
+      <c r="C87" t="n">
+        <v>198.6499938964844</v>
+      </c>
+      <c r="D87" t="n">
+        <v>198.6499938964844</v>
+      </c>
+      <c r="E87" t="n">
+        <v>198.6499938964844</v>
+      </c>
+      <c r="F87" t="n">
+        <v>500</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+      <c r="I87" t="n">
+        <v>6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>19</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B88" t="n">
+        <v>195</v>
+      </c>
+      <c r="C88" t="n">
+        <v>196</v>
+      </c>
+      <c r="D88" t="n">
+        <v>195</v>
+      </c>
+      <c r="E88" t="n">
+        <v>196</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>19</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B89" t="n">
+        <v>192.1000061035156</v>
+      </c>
+      <c r="C89" t="n">
+        <v>192.1000061035156</v>
+      </c>
+      <c r="D89" t="n">
+        <v>192.1000061035156</v>
+      </c>
+      <c r="E89" t="n">
+        <v>192.1000061035156</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>19</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B90" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>188.3000030517578</v>
+      </c>
+      <c r="E90" t="n">
+        <v>188.3000030517578</v>
+      </c>
+      <c r="F90" t="n">
+        <v>500</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+      <c r="I90" t="n">
+        <v>9</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>19</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B91" t="n">
+        <v>188.3000030517578</v>
+      </c>
+      <c r="C91" t="n">
+        <v>188.3000030517578</v>
+      </c>
+      <c r="D91" t="n">
+        <v>188.3000030517578</v>
+      </c>
+      <c r="E91" t="n">
+        <v>188.3000030517578</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>12</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>20</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B92" t="n">
+        <v>188.3000030517578</v>
+      </c>
+      <c r="C92" t="n">
+        <v>188.3000030517578</v>
+      </c>
+      <c r="D92" t="n">
+        <v>185</v>
+      </c>
+      <c r="E92" t="n">
+        <v>185</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>20</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B93" t="n">
+        <v>186</v>
+      </c>
+      <c r="C93" t="n">
+        <v>187</v>
+      </c>
+      <c r="D93" t="n">
+        <v>186</v>
+      </c>
+      <c r="E93" t="n">
+        <v>187</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+      <c r="I93" t="n">
+        <v>14</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>20</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B94" t="n">
+        <v>188.0500030517578</v>
+      </c>
+      <c r="C94" t="n">
+        <v>188.0500030517578</v>
+      </c>
+      <c r="D94" t="n">
+        <v>188.0500030517578</v>
+      </c>
+      <c r="E94" t="n">
+        <v>188.0500030517578</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>15</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>20</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B95" t="n">
+        <v>191.8000030517578</v>
+      </c>
+      <c r="C95" t="n">
+        <v>191.8000030517578</v>
+      </c>
+      <c r="D95" t="n">
+        <v>191.8000030517578</v>
+      </c>
+      <c r="E95" t="n">
+        <v>191.8000030517578</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+      <c r="I95" t="n">
+        <v>16</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>20</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
